--- a/2020/data/processed/GCOOS.xlsx
+++ b/2020/data/processed/GCOOS.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3769" uniqueCount="1027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3768" uniqueCount="1026">
   <si>
     <t>Station ID</t>
   </si>
@@ -3195,9 +3195,6 @@
   </si>
   <si>
     <t> Enven Energy Corporation</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>GCOOS (info@gcoos.org)</t>
@@ -4340,10 +4337,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J11" sqref="J11"/>
-      <selection pane="bottomLeft" activeCell="Q57" sqref="Q57"/>
+      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4471,7 +4468,7 @@
         <v>354</v>
       </c>
       <c r="Q2" s="122" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="R2" s="12"/>
     </row>
@@ -4573,7 +4570,7 @@
         <v>354</v>
       </c>
       <c r="Q4" s="122" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="R4" s="12"/>
     </row>
@@ -4826,10 +4823,10 @@
         <v>353</v>
       </c>
       <c r="P9" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q9" s="125" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="R9" s="20"/>
     </row>
@@ -4880,7 +4877,7 @@
         <v>313</v>
       </c>
       <c r="Q10" s="124" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="R10" s="12"/>
     </row>
@@ -4931,7 +4928,7 @@
         <v>313</v>
       </c>
       <c r="Q11" s="122" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="R11" s="12"/>
     </row>
@@ -4958,7 +4955,7 @@
         <v>298</v>
       </c>
       <c r="I12" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="J12" s="121" t="s">
         <v>156</v>
@@ -5009,7 +5006,7 @@
         <v>40</v>
       </c>
       <c r="I13" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="J13" s="121" t="s">
         <v>156</v>
@@ -5060,7 +5057,7 @@
         <v>298</v>
       </c>
       <c r="I14" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="J14" s="121" t="s">
         <v>156</v>
@@ -5114,7 +5111,7 @@
         <v>183</v>
       </c>
       <c r="J15" s="121" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="K15" t="s">
         <v>184</v>
@@ -5132,7 +5129,7 @@
         <v>950</v>
       </c>
       <c r="P15" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q15" s="14" t="s">
         <v>916</v>
@@ -6545,7 +6542,7 @@
         <v>183</v>
       </c>
       <c r="J43" s="121" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="K43" t="s">
         <v>184</v>
@@ -6674,7 +6671,7 @@
         <v>383</v>
       </c>
       <c r="Q45" s="122" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="R45" s="12"/>
     </row>
@@ -7058,7 +7055,7 @@
         <v>298</v>
       </c>
       <c r="I53" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="J53" s="121" t="s">
         <v>232</v>
@@ -7193,13 +7190,13 @@
         <v>179</v>
       </c>
       <c r="B56" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D56" t="s">
         <v>1013</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>1014</v>
-      </c>
-      <c r="E56" t="s">
-        <v>1015</v>
       </c>
       <c r="F56" s="13">
         <v>28.9192</v>
@@ -7229,7 +7226,7 @@
         <v>304</v>
       </c>
       <c r="Q56" s="14" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="R56" s="12"/>
     </row>
@@ -7256,7 +7253,7 @@
         <v>298</v>
       </c>
       <c r="I57" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="J57" s="121" t="s">
         <v>232</v>
@@ -7307,7 +7304,7 @@
         <v>298</v>
       </c>
       <c r="I58" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="J58" s="121" t="s">
         <v>232</v>
@@ -7331,7 +7328,7 @@
         <v>304</v>
       </c>
       <c r="Q58" s="123" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="R58" s="12"/>
     </row>
@@ -7385,7 +7382,7 @@
         <v>243</v>
       </c>
       <c r="Q59" s="122" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="R59" s="12"/>
     </row>
@@ -7493,7 +7490,7 @@
         <v>243</v>
       </c>
       <c r="Q61" s="122" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="R61" s="12"/>
     </row>
@@ -7547,7 +7544,7 @@
         <v>243</v>
       </c>
       <c r="Q62" s="122" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="R62" s="12"/>
     </row>
@@ -7601,7 +7598,7 @@
         <v>243</v>
       </c>
       <c r="Q63" s="122" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="R63" s="12"/>
     </row>
@@ -7655,7 +7652,7 @@
         <v>243</v>
       </c>
       <c r="Q64" s="122" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="R64" s="12"/>
     </row>
@@ -7709,7 +7706,7 @@
         <v>243</v>
       </c>
       <c r="Q65" s="122" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="R65" s="12"/>
     </row>
@@ -7763,7 +7760,7 @@
         <v>243</v>
       </c>
       <c r="Q66" s="122" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="R66" s="12"/>
     </row>
@@ -7817,7 +7814,7 @@
         <v>243</v>
       </c>
       <c r="Q67" s="122" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="R67" s="12"/>
     </row>
@@ -7919,7 +7916,7 @@
         <v>949</v>
       </c>
       <c r="P69" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q69" s="14" t="s">
         <v>915</v>
@@ -7973,7 +7970,7 @@
         <v>949</v>
       </c>
       <c r="P70" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q70" s="14" t="s">
         <v>565</v>
@@ -8027,7 +8024,7 @@
         <v>949</v>
       </c>
       <c r="P71" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q71" s="14" t="s">
         <v>915</v>
@@ -8081,7 +8078,7 @@
         <v>958</v>
       </c>
       <c r="P72" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q72" t="s">
         <v>924</v>
@@ -8135,7 +8132,7 @@
         <v>951</v>
       </c>
       <c r="P73" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q73" s="14" t="s">
         <v>919</v>
@@ -8189,7 +8186,7 @@
         <v>967</v>
       </c>
       <c r="P74" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q74" s="14" t="s">
         <v>565</v>
@@ -8243,7 +8240,7 @@
         <v>952</v>
       </c>
       <c r="P75" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q75" s="14" t="s">
         <v>565</v>
@@ -8297,7 +8294,7 @@
         <v>958</v>
       </c>
       <c r="P76" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q76" s="14" t="s">
         <v>572</v>
@@ -8351,7 +8348,7 @@
         <v>952</v>
       </c>
       <c r="P77" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q77" s="14" t="s">
         <v>565</v>
@@ -8405,7 +8402,7 @@
         <v>970</v>
       </c>
       <c r="P78" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q78" s="14" t="s">
         <v>586</v>
@@ -8459,7 +8456,7 @@
         <v>954</v>
       </c>
       <c r="P79" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q79" s="14" t="s">
         <v>565</v>
@@ -8513,7 +8510,7 @@
         <v>955</v>
       </c>
       <c r="P80" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q80" s="14" t="s">
         <v>565</v>
@@ -8567,7 +8564,7 @@
         <v>956</v>
       </c>
       <c r="P81" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q81" s="14" t="s">
         <v>565</v>
@@ -8621,7 +8618,7 @@
         <v>979</v>
       </c>
       <c r="P82" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q82" s="14" t="s">
         <v>565</v>
@@ -8675,7 +8672,7 @@
         <v>949</v>
       </c>
       <c r="P83" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q83" s="14" t="s">
         <v>612</v>
@@ -8729,7 +8726,7 @@
         <v>950</v>
       </c>
       <c r="P84" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q84" s="14" t="s">
         <v>625</v>
@@ -8783,7 +8780,7 @@
         <v>949</v>
       </c>
       <c r="P85" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q85" t="s">
         <v>923</v>
@@ -8837,7 +8834,7 @@
         <v>967</v>
       </c>
       <c r="P86" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q86" s="14" t="s">
         <v>565</v>
@@ -8891,7 +8888,7 @@
         <v>960</v>
       </c>
       <c r="P87" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q87" s="14" t="s">
         <v>586</v>
@@ -8945,7 +8942,7 @@
         <v>949</v>
       </c>
       <c r="P88" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q88" s="14" t="s">
         <v>565</v>
@@ -8999,7 +8996,7 @@
         <v>980</v>
       </c>
       <c r="P89" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q89" s="14" t="s">
         <v>565</v>
@@ -9053,7 +9050,7 @@
         <v>958</v>
       </c>
       <c r="P90" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q90" s="14" t="s">
         <v>565</v>
@@ -9107,7 +9104,7 @@
         <v>964</v>
       </c>
       <c r="P91" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q91" s="14" t="s">
         <v>565</v>
@@ -9161,7 +9158,7 @@
         <v>950</v>
       </c>
       <c r="P92" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q92" s="14" t="s">
         <v>565</v>
@@ -9215,7 +9212,7 @@
         <v>970</v>
       </c>
       <c r="P93" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q93" s="14" t="s">
         <v>565</v>
@@ -9269,7 +9266,7 @@
         <v>949</v>
       </c>
       <c r="P94" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q94" s="14" t="s">
         <v>565</v>
@@ -9323,7 +9320,7 @@
         <v>972</v>
       </c>
       <c r="P95" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q95" s="14" t="s">
         <v>565</v>
@@ -9377,7 +9374,7 @@
         <v>967</v>
       </c>
       <c r="P96" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q96" s="14" t="s">
         <v>565</v>
@@ -9431,7 +9428,7 @@
         <v>986</v>
       </c>
       <c r="P97" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q97" s="14" t="s">
         <v>565</v>
@@ -9485,7 +9482,7 @@
         <v>986</v>
       </c>
       <c r="P98" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q98" s="14" t="s">
         <v>586</v>
@@ -9539,7 +9536,7 @@
         <v>958</v>
       </c>
       <c r="P99" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q99" s="14" t="s">
         <v>565</v>
@@ -9593,7 +9590,7 @@
         <v>970</v>
       </c>
       <c r="P100" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q100" s="14" t="s">
         <v>565</v>
@@ -9647,7 +9644,7 @@
         <v>958</v>
       </c>
       <c r="P101" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q101" s="14" t="s">
         <v>921</v>
@@ -9701,7 +9698,7 @@
         <v>958</v>
       </c>
       <c r="P102" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q102" s="14" t="s">
         <v>565</v>
@@ -9755,7 +9752,7 @@
         <v>989</v>
       </c>
       <c r="P103" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q103" s="14" t="s">
         <v>565</v>
@@ -9809,7 +9806,7 @@
         <v>951</v>
       </c>
       <c r="P104" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q104" s="14" t="s">
         <v>565</v>
@@ -9863,7 +9860,7 @@
         <v>949</v>
       </c>
       <c r="P105" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q105" s="14" t="s">
         <v>922</v>
@@ -9917,7 +9914,7 @@
         <v>960</v>
       </c>
       <c r="P106" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q106" s="18" t="s">
         <v>586</v>
@@ -9971,7 +9968,7 @@
         <v>969</v>
       </c>
       <c r="P107" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q107" s="14" t="s">
         <v>565</v>
@@ -10025,7 +10022,7 @@
         <v>950</v>
       </c>
       <c r="P108" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q108" s="14" t="s">
         <v>565</v>
@@ -10079,7 +10076,7 @@
         <v>967</v>
       </c>
       <c r="P109" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q109" s="14" t="s">
         <v>565</v>
@@ -10133,7 +10130,7 @@
         <v>992</v>
       </c>
       <c r="P110" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q110" s="14" t="s">
         <v>565</v>
@@ -10187,7 +10184,7 @@
         <v>963</v>
       </c>
       <c r="P111" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q111" s="14" t="s">
         <v>565</v>
@@ -10241,7 +10238,7 @@
         <v>993</v>
       </c>
       <c r="P112" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q112" s="14" t="s">
         <v>565</v>
@@ -10295,7 +10292,7 @@
         <v>965</v>
       </c>
       <c r="P113" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q113" s="14" t="s">
         <v>565</v>
@@ -10349,7 +10346,7 @@
         <v>956</v>
       </c>
       <c r="P114" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q114" s="14" t="s">
         <v>565</v>
@@ -10403,7 +10400,7 @@
         <v>968</v>
       </c>
       <c r="P115" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q115" s="14" t="s">
         <v>565</v>
@@ -10457,7 +10454,7 @@
         <v>970</v>
       </c>
       <c r="P116" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q116" s="14" t="s">
         <v>565</v>
@@ -10511,7 +10508,7 @@
         <v>993</v>
       </c>
       <c r="P117" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q117" s="14" t="s">
         <v>565</v>
@@ -11311,9 +11308,7 @@
       <c r="J200" s="23"/>
       <c r="K200" s="20"/>
       <c r="L200" s="20"/>
-      <c r="M200" s="20" t="s">
-        <v>997</v>
-      </c>
+      <c r="M200" s="20"/>
       <c r="N200" s="20"/>
       <c r="O200" s="20"/>
       <c r="P200" s="20"/>
@@ -12811,7 +12806,7 @@
         <v>996</v>
       </c>
       <c r="P2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q2" s="14" t="s">
         <v>917</v>
@@ -12865,7 +12860,7 @@
         <v>949</v>
       </c>
       <c r="P3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q3" s="14" t="s">
         <v>918</v>
@@ -12919,7 +12914,7 @@
         <v>954</v>
       </c>
       <c r="P4" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q4" s="18" t="s">
         <v>586</v>
@@ -12973,7 +12968,7 @@
         <v>981</v>
       </c>
       <c r="P5" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q5" s="14" t="s">
         <v>586</v>
@@ -13027,7 +13022,7 @@
         <v>975</v>
       </c>
       <c r="P6" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q6" s="14" t="s">
         <v>565</v>
@@ -13081,7 +13076,7 @@
         <v>967</v>
       </c>
       <c r="P7" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q7" s="14" t="s">
         <v>565</v>
@@ -13135,7 +13130,7 @@
         <v>958</v>
       </c>
       <c r="P8" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q8" s="14" t="s">
         <v>576</v>
@@ -13189,7 +13184,7 @@
         <v>958</v>
       </c>
       <c r="P9" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q9" s="14" t="s">
         <v>580</v>
@@ -13243,7 +13238,7 @@
         <v>953</v>
       </c>
       <c r="P10" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q10" s="18" t="s">
         <v>920</v>
@@ -13297,7 +13292,7 @@
         <v>971</v>
       </c>
       <c r="P11" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q11" s="14" t="s">
         <v>565</v>
@@ -13351,7 +13346,7 @@
         <v>982</v>
       </c>
       <c r="P12" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q12" s="14" t="s">
         <v>586</v>
@@ -13405,7 +13400,7 @@
         <v>956</v>
       </c>
       <c r="P13" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q13" s="14" t="s">
         <v>565</v>
@@ -13459,7 +13454,7 @@
         <v>972</v>
       </c>
       <c r="P14" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q14" s="14" t="s">
         <v>586</v>
@@ -13513,7 +13508,7 @@
         <v>957</v>
       </c>
       <c r="P15" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q15" s="14" t="s">
         <v>565</v>
@@ -13567,7 +13562,7 @@
         <v>955</v>
       </c>
       <c r="P16" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q16" s="14" t="s">
         <v>565</v>
@@ -13621,7 +13616,7 @@
         <v>983</v>
       </c>
       <c r="P17" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q17" s="14" t="s">
         <v>565</v>
@@ -13675,7 +13670,7 @@
         <v>960</v>
       </c>
       <c r="P18" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q18" s="14" t="s">
         <v>565</v>
@@ -13687,16 +13682,16 @@
         <v>179</v>
       </c>
       <c r="B19" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C19">
         <v>42400</v>
       </c>
       <c r="D19" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E19" s="116" t="s">
         <v>1018</v>
-      </c>
-      <c r="E19" s="116" t="s">
-        <v>1019</v>
       </c>
       <c r="F19">
         <v>28.574000000000002</v>
@@ -13729,7 +13724,7 @@
         <v>950</v>
       </c>
       <c r="P19" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q19" s="14" t="s">
         <v>565</v>
@@ -13741,16 +13736,16 @@
         <v>179</v>
       </c>
       <c r="B20" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C20">
         <v>42401</v>
       </c>
       <c r="D20" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E20" s="116" t="s">
         <v>1021</v>
-      </c>
-      <c r="E20" s="116" t="s">
-        <v>1022</v>
       </c>
       <c r="F20">
         <v>27.509</v>
@@ -13783,7 +13778,7 @@
         <v>968</v>
       </c>
       <c r="P20" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q20" s="14" t="s">
         <v>565</v>
@@ -13837,7 +13832,7 @@
         <v>961</v>
       </c>
       <c r="P21" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q21" s="14" t="s">
         <v>565</v>
@@ -13891,7 +13886,7 @@
         <v>962</v>
       </c>
       <c r="P22" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q22" s="14" t="s">
         <v>565</v>
@@ -13945,7 +13940,7 @@
         <v>969</v>
       </c>
       <c r="P23" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q23" s="14" t="s">
         <v>565</v>
@@ -13999,7 +13994,7 @@
         <v>949</v>
       </c>
       <c r="P24" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q24" s="14" t="s">
         <v>565</v>
@@ -14053,7 +14048,7 @@
         <v>979</v>
       </c>
       <c r="P25" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q25" s="14" t="s">
         <v>565</v>
@@ -14107,7 +14102,7 @@
         <v>984</v>
       </c>
       <c r="P26" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q26" s="14" t="s">
         <v>565</v>
@@ -14161,7 +14156,7 @@
         <v>950</v>
       </c>
       <c r="P27" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q27" s="14" t="s">
         <v>565</v>
@@ -14215,7 +14210,7 @@
         <v>949</v>
       </c>
       <c r="P28" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q28" s="14" t="s">
         <v>565</v>
@@ -14269,7 +14264,7 @@
         <v>974</v>
       </c>
       <c r="P29" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q29" s="14" t="s">
         <v>565</v>
@@ -14323,14 +14318,14 @@
         <v>962</v>
       </c>
       <c r="P30" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q30" s="14" t="s">
         <v>586</v>
       </c>
       <c r="R30" s="14"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>179</v>
       </c>
@@ -14377,7 +14372,7 @@
         <v>972</v>
       </c>
       <c r="P31" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q31" s="14" t="s">
         <v>565</v>
@@ -14431,7 +14426,7 @@
         <v>958</v>
       </c>
       <c r="P32" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q32" s="14" t="s">
         <v>565</v>
@@ -14485,7 +14480,7 @@
         <v>957</v>
       </c>
       <c r="P33" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q33" s="14" t="s">
         <v>586</v>
@@ -14539,7 +14534,7 @@
         <v>985</v>
       </c>
       <c r="P34" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q34" s="14" t="s">
         <v>586</v>
@@ -14593,7 +14588,7 @@
         <v>955</v>
       </c>
       <c r="P35" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q35" s="14" t="s">
         <v>565</v>
@@ -14647,14 +14642,14 @@
         <v>958</v>
       </c>
       <c r="P36" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q36" s="14" t="s">
         <v>586</v>
       </c>
       <c r="R36" s="14"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>179</v>
       </c>
@@ -14701,7 +14696,7 @@
         <v>973</v>
       </c>
       <c r="P37" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q37" s="14" t="s">
         <v>565</v>
@@ -14755,7 +14750,7 @@
         <v>949</v>
       </c>
       <c r="P38" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q38" s="14" t="s">
         <v>586</v>
@@ -14809,7 +14804,7 @@
         <v>962</v>
       </c>
       <c r="P39" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q39" s="14" t="s">
         <v>586</v>
@@ -14863,14 +14858,14 @@
         <v>970</v>
       </c>
       <c r="P40" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q40" s="14" t="s">
         <v>586</v>
       </c>
       <c r="R40" s="12"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>179</v>
       </c>
@@ -14917,14 +14912,14 @@
         <v>987</v>
       </c>
       <c r="P41" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q41" s="14" t="s">
         <v>565</v>
       </c>
       <c r="R41" s="12"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>179</v>
       </c>
@@ -14971,7 +14966,7 @@
         <v>951</v>
       </c>
       <c r="P42" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q42" s="14" t="s">
         <v>565</v>
@@ -15025,7 +15020,7 @@
         <v>949</v>
       </c>
       <c r="P43" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q43" s="14" t="s">
         <v>565</v>
@@ -15079,7 +15074,7 @@
         <v>988</v>
       </c>
       <c r="P44" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q44" s="14" t="s">
         <v>565</v>
@@ -15133,7 +15128,7 @@
         <v>959</v>
       </c>
       <c r="P45" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q45" s="18" t="s">
         <v>586</v>
@@ -15187,14 +15182,14 @@
         <v>959</v>
       </c>
       <c r="P46" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q46" s="14" t="s">
         <v>565</v>
       </c>
       <c r="R46" s="15"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>179</v>
       </c>
@@ -15241,7 +15236,7 @@
         <v>968</v>
       </c>
       <c r="P47" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q47" s="18" t="s">
         <v>586</v>
@@ -15295,14 +15290,14 @@
         <v>958</v>
       </c>
       <c r="P48" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q48" s="14" t="s">
         <v>565</v>
       </c>
       <c r="R48" s="14"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
         <v>179</v>
       </c>
@@ -15349,7 +15344,7 @@
         <v>973</v>
       </c>
       <c r="P49" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q49" s="18" t="s">
         <v>586</v>
@@ -15403,7 +15398,7 @@
         <v>949</v>
       </c>
       <c r="P50" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q50" s="14" t="s">
         <v>565</v>
@@ -15457,7 +15452,7 @@
         <v>965</v>
       </c>
       <c r="P51" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q51" s="18" t="s">
         <v>586</v>
@@ -15511,7 +15506,7 @@
         <v>990</v>
       </c>
       <c r="P52" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q52" s="14" t="s">
         <v>565</v>
@@ -15565,7 +15560,7 @@
         <v>976</v>
       </c>
       <c r="P53" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q53" s="18" t="s">
         <v>586</v>
@@ -15619,7 +15614,7 @@
         <v>989</v>
       </c>
       <c r="P54" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q54" s="14" t="s">
         <v>586</v>
@@ -15673,7 +15668,7 @@
         <v>991</v>
       </c>
       <c r="P55" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q55" s="14" t="s">
         <v>565</v>
@@ -15727,7 +15722,7 @@
         <v>968</v>
       </c>
       <c r="P56" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q56" s="23" t="str">
         <f>removed_oilgas_stations!$Q$54</f>
@@ -15782,7 +15777,7 @@
         <v>951</v>
       </c>
       <c r="P57" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q57" s="14" t="s">
         <v>565</v>
@@ -15836,7 +15831,7 @@
         <v>962</v>
       </c>
       <c r="P58" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q58" s="14" t="s">
         <v>565</v>
@@ -15890,7 +15885,7 @@
         <v>963</v>
       </c>
       <c r="P59" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q59" s="18" t="s">
         <v>586</v>
@@ -15944,7 +15939,7 @@
         <v>966</v>
       </c>
       <c r="P60" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q60" s="14" t="s">
         <v>565</v>
@@ -15998,7 +15993,7 @@
         <v>967</v>
       </c>
       <c r="P61" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q61" s="14" t="s">
         <v>565</v>
@@ -16052,7 +16047,7 @@
         <v>961</v>
       </c>
       <c r="P62" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q62" s="14" t="s">
         <v>565</v>
@@ -16106,7 +16101,7 @@
         <v>978</v>
       </c>
       <c r="P63" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q63" s="14" t="s">
         <v>565</v>
@@ -16160,7 +16155,7 @@
         <v>977</v>
       </c>
       <c r="P64" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q64" s="14" t="s">
         <v>565</v>
@@ -16214,7 +16209,7 @@
         <v>951</v>
       </c>
       <c r="P65" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q65" s="14" t="s">
         <v>565</v>
@@ -16268,7 +16263,7 @@
         <v>964</v>
       </c>
       <c r="P66" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q66" s="14" t="s">
         <v>565</v>
@@ -16322,7 +16317,7 @@
         <v>968</v>
       </c>
       <c r="P67" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q67" s="18" t="s">
         <v>586</v>
@@ -16376,7 +16371,7 @@
         <v>958</v>
       </c>
       <c r="P68" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q68" s="23" t="str">
         <f>removed_oilgas_stations!$Q$54</f>
@@ -16431,7 +16426,7 @@
         <v>962</v>
       </c>
       <c r="P69" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q69" s="14" t="s">
         <v>565</v>
@@ -16485,7 +16480,7 @@
         <v>950</v>
       </c>
       <c r="P70" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q70" s="14" t="s">
         <v>565</v>
@@ -16539,7 +16534,7 @@
         <v>964</v>
       </c>
       <c r="P71" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q71" s="14" t="s">
         <v>565</v>
@@ -16593,7 +16588,7 @@
         <v>959</v>
       </c>
       <c r="P72" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q72" s="14" t="s">
         <v>565</v>
@@ -16647,7 +16642,7 @@
         <v>967</v>
       </c>
       <c r="P73" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q73" s="14" t="s">
         <v>565</v>
@@ -16701,7 +16696,7 @@
         <v>949</v>
       </c>
       <c r="P74" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q74" s="14" t="s">
         <v>565</v>
@@ -16755,7 +16750,7 @@
         <v>956</v>
       </c>
       <c r="P75" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q75" s="14" t="s">
         <v>565</v>
@@ -16809,7 +16804,7 @@
         <v>993</v>
       </c>
       <c r="P76" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q76" s="14" t="s">
         <v>565</v>
@@ -16863,7 +16858,7 @@
         <v>988</v>
       </c>
       <c r="P77" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q77" s="14" t="s">
         <v>565</v>
@@ -16917,7 +16912,7 @@
         <v>994</v>
       </c>
       <c r="P78" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q78" s="14" t="s">
         <v>565</v>
@@ -16971,7 +16966,7 @@
         <v>995</v>
       </c>
       <c r="P79" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q79" s="23" t="str">
         <f>removed_oilgas_stations!$Q$54</f>
@@ -17026,7 +17021,7 @@
         <v>980</v>
       </c>
       <c r="P80" s="115" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q80" s="23" t="str">
         <f>removed_oilgas_stations!$Q$54</f>
@@ -21035,13 +21030,13 @@
         <v>179</v>
       </c>
       <c r="B32" s="129" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C32" s="129" t="s">
         <v>1023</v>
       </c>
-      <c r="C32" s="129" t="s">
+      <c r="D32" s="129" t="s">
         <v>1024</v>
-      </c>
-      <c r="D32" s="129" t="s">
-        <v>1025</v>
       </c>
       <c r="E32" s="130">
         <v>0</v>
@@ -21050,7 +21045,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="129" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H32" s="126"/>
       <c r="I32" s="127"/>
